--- a/model_results/similarity_combined.xlsx
+++ b/model_results/similarity_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackhorton/Documents/MIT/15.095_Machine_Learning/Project/ML-Project/model_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C56D4A-8849-444D-ACC4-CD216FCCA6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FECB13C-0088-6D4D-B660-6D0EE5FD22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2D2DF509-DEEF-4C4B-A7C4-876859A4607E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$651</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$649</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
